--- a/com/hennessy/pc_scand/case.xlsx
+++ b/com/hennessy/pc_scand/case.xlsx
@@ -1,185 +1,260 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="12930" windowHeight="6180" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView windowWidth="12930" windowHeight="6180"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="144525" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="17">
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>dpi</t>
+  </si>
+  <si>
+    <t>except_bit_depth</t>
+  </si>
+  <si>
+    <t>scaling</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>scand_way</t>
+  </si>
+  <si>
+    <t>preservation_method</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>玻璃面板</t>
+  </si>
+  <si>
+    <t>图片</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>PDF</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FF067D17"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>输稿器（双面）</t>
+    </r>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="21">
-    <font>
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.8"/>
+      <color rgb="FF067D17"/>
       <name val="Courier New"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9.8"/>
       <color rgb="FF067D17"/>
-      <sz val="9.800000000000001"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <b val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <name val="宋体"/>
       <charset val="134"/>
-      <b val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <name val="宋体"/>
       <charset val="134"/>
-      <b val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <name val="宋体"/>
       <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -479,165 +554,168 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -693,74 +771,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1049,166 +1064,222 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="6"/>
   <cols>
-    <col width="9" customWidth="1" style="1" min="1" max="2"/>
-    <col width="20.5454545454545" customWidth="1" style="1" min="3" max="3"/>
-    <col width="9" customWidth="1" style="1" min="4" max="16384"/>
+    <col min="1" max="2" width="9" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5454545454545" style="1" customWidth="1"/>
+    <col min="4" max="5" width="9" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.8181818181818" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.9090909090909" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>size</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>dpi</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>except_bit_depth</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>scaling</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>result</t>
-        </is>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>B5_ISO</t>
-        </is>
-      </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>300</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="D2" s="3" t="n">
-        <v>0.04444444444444445</v>
-      </c>
-      <c r="E2" s="0" t="inlineStr">
-        <is>
-          <t>Fail</t>
-        </is>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.0423611111111111</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>B5_ISO</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>300</t>
-        </is>
-      </c>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="D3" s="3" t="n">
-        <v>0.04444444444444445</v>
-      </c>
-      <c r="E3" s="0" t="inlineStr">
-        <is>
-          <t>Fail</t>
-        </is>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.0423611111111111</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>B5_ISO</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>300</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="D4" s="3" t="n">
-        <v>0.04444444444444445</v>
-      </c>
-      <c r="E4" s="0" t="inlineStr">
-        <is>
-          <t>Fail</t>
-        </is>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.0423611111111111</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.0423611111111111</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.0423611111111111</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.0423611111111111</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>